--- a/tp05_03-reglas_de_asociacion/resolucion/ejercicio_1.xlsx
+++ b/tp05_03-reglas_de_asociacion/resolucion/ejercicio_1.xlsx
@@ -78,8 +78,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -115,6 +115,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,13 +161,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -145,22 +216,20 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -168,81 +237,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -283,181 +283,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,29 +722,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,58 +793,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,76 +824,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -902,58 +902,58 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="24" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="23" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="23" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="27" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="24" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -965,11 +965,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,16 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1510,7 +1501,7 @@
       <c r="F4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="25">
         <v>1</v>
       </c>
       <c r="H4" s="26" t="s">
@@ -1530,18 +1521,18 @@
       <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="10">
         <f>2/10</f>
         <v>0.2</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="28" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="25">
         <f>2/3</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1649,7 +1640,7 @@
       <c r="F9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="25">
         <v>1</v>
       </c>
       <c r="H9" s="26" t="s">
@@ -1669,18 +1660,18 @@
       <c r="D10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="29">
         <f>2/10</f>
         <v>0.2</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="30" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="25">
         <f>2/3</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="31" t="s">
         <v>1</v>
       </c>
     </row>
